--- a/Code/Results/Cases/Case_3_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.30899933024905</v>
+        <v>10.2210306930377</v>
       </c>
       <c r="C2">
-        <v>8.523486495694399</v>
+        <v>11.51775305135823</v>
       </c>
       <c r="D2">
-        <v>5.4652633425822</v>
+        <v>5.235352649440111</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.73978033650294</v>
+        <v>24.23461331518008</v>
       </c>
       <c r="G2">
-        <v>20.27695066973472</v>
+        <v>28.6255903374972</v>
       </c>
       <c r="H2">
-        <v>8.666369696155387</v>
+        <v>14.38510219455232</v>
       </c>
       <c r="I2">
-        <v>14.43658764055385</v>
+        <v>23.26486237457069</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11.52490664854063</v>
+        <v>8.58116882421815</v>
       </c>
       <c r="L2">
-        <v>7.209750615664526</v>
+        <v>11.21595893292223</v>
       </c>
       <c r="M2">
-        <v>9.835906972697215</v>
+        <v>13.75308397553642</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>13.80275637882298</v>
+        <v>21.85426183704564</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.46209334246798</v>
+        <v>9.923992341463785</v>
       </c>
       <c r="C3">
-        <v>8.545549693382432</v>
+        <v>11.53009331592607</v>
       </c>
       <c r="D3">
-        <v>5.253576939105256</v>
+        <v>5.154982484669983</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.60387446199466</v>
+        <v>24.29612488448738</v>
       </c>
       <c r="G3">
-        <v>20.22298434732748</v>
+        <v>28.73442185032179</v>
       </c>
       <c r="H3">
-        <v>8.75346973956362</v>
+        <v>14.43290714826732</v>
       </c>
       <c r="I3">
-        <v>14.63779955988343</v>
+        <v>23.36380770168875</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.99552385824336</v>
+        <v>8.337340936199</v>
       </c>
       <c r="L3">
-        <v>7.11236005692456</v>
+        <v>11.22606745934483</v>
       </c>
       <c r="M3">
-        <v>9.463539385234204</v>
+        <v>13.70532880120398</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>13.90319290696957</v>
+        <v>21.93734974384658</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.91165246564754</v>
+        <v>9.738061449572168</v>
       </c>
       <c r="C4">
-        <v>8.560724473321022</v>
+        <v>11.53844143672482</v>
       </c>
       <c r="D4">
-        <v>5.118515308454009</v>
+        <v>5.10429642810818</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.5349175590213</v>
+        <v>24.33981841187791</v>
       </c>
       <c r="G4">
-        <v>20.21328947991151</v>
+        <v>28.80958767732322</v>
       </c>
       <c r="H4">
-        <v>8.811503563823234</v>
+        <v>14.46429970509273</v>
       </c>
       <c r="I4">
-        <v>14.77063368883077</v>
+        <v>23.42859982846176</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.6563699377059</v>
+        <v>8.182608094998681</v>
       </c>
       <c r="L4">
-        <v>7.055594092385775</v>
+        <v>11.2340243499668</v>
       </c>
       <c r="M4">
-        <v>9.230443338114151</v>
+        <v>13.6777560088864</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>13.97549267801221</v>
+        <v>21.99255363269664</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.6796870182396</v>
+        <v>9.661512211389804</v>
       </c>
       <c r="C5">
-        <v>8.567314866721238</v>
+        <v>11.54203786455568</v>
       </c>
       <c r="D5">
-        <v>5.062243390516254</v>
+        <v>5.083317530828728</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.51038863525379</v>
+        <v>24.35911089421014</v>
       </c>
       <c r="G5">
-        <v>20.21501732966275</v>
+        <v>28.84230870328967</v>
       </c>
       <c r="H5">
-        <v>8.836267702781321</v>
+        <v>14.47760585606532</v>
       </c>
       <c r="I5">
-        <v>14.82702854777828</v>
+        <v>23.45601927652849</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10.51471817541517</v>
+        <v>8.118350140601684</v>
       </c>
       <c r="L5">
-        <v>7.033236008666059</v>
+        <v>11.23770743687998</v>
       </c>
       <c r="M5">
-        <v>9.134472096717788</v>
+        <v>13.66696743736208</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>14.00752819403525</v>
+        <v>22.01610188223956</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.6407069969497</v>
+        <v>9.648757507038264</v>
       </c>
       <c r="C6">
-        <v>8.568433671791857</v>
+        <v>11.54264681329564</v>
       </c>
       <c r="D6">
-        <v>5.052826451178028</v>
+        <v>5.07981481544165</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.50652904087091</v>
+        <v>24.36240411646467</v>
       </c>
       <c r="G6">
-        <v>20.21564069313865</v>
+        <v>28.84786802930375</v>
       </c>
       <c r="H6">
-        <v>8.840446256027267</v>
+        <v>14.47984635477465</v>
       </c>
       <c r="I6">
-        <v>14.83652760344461</v>
+        <v>23.46063363959223</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>10.49099242985289</v>
+        <v>8.107609334909313</v>
       </c>
       <c r="L6">
-        <v>7.029570557507807</v>
+        <v>11.23834563331829</v>
       </c>
       <c r="M6">
-        <v>9.118481132988297</v>
+        <v>13.66520325324483</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>14.0130001800201</v>
+        <v>22.02007557945049</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.9085550963207</v>
+        <v>9.737032088882197</v>
       </c>
       <c r="C7">
-        <v>8.560811711161707</v>
+        <v>11.53848915109958</v>
       </c>
       <c r="D7">
-        <v>5.117761334210182</v>
+        <v>5.104014793864618</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.53457239465697</v>
+        <v>24.34007258027344</v>
       </c>
       <c r="G7">
-        <v>20.21329008295603</v>
+        <v>28.81002051101904</v>
       </c>
       <c r="H7">
-        <v>8.81183306614888</v>
+        <v>14.46447707707435</v>
       </c>
       <c r="I7">
-        <v>14.77138517435115</v>
+        <v>23.42896550187798</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.65447336470334</v>
+        <v>8.181746278462244</v>
       </c>
       <c r="L7">
-        <v>7.055289413019</v>
+        <v>11.23407223686735</v>
       </c>
       <c r="M7">
-        <v>9.229152821191033</v>
+        <v>13.67760868834023</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>13.97591443353518</v>
+        <v>21.99286695327871</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.02329925879752</v>
+        <v>10.11941269024777</v>
       </c>
       <c r="C8">
-        <v>8.530754291336502</v>
+        <v>11.52184827625713</v>
       </c>
       <c r="D8">
-        <v>5.393354762475147</v>
+        <v>5.207926253222304</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.68987242238891</v>
+        <v>24.25459107708086</v>
       </c>
       <c r="G8">
-        <v>20.25335183483903</v>
+        <v>28.6613794614524</v>
       </c>
       <c r="H8">
-        <v>8.695437808892621</v>
+        <v>14.40116217029727</v>
       </c>
       <c r="I8">
-        <v>14.50399251805884</v>
+        <v>23.29814061601718</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>11.3453612465297</v>
+        <v>8.498173422581678</v>
       </c>
       <c r="L8">
-        <v>7.175548784744229</v>
+        <v>11.21908141411737</v>
       </c>
       <c r="M8">
-        <v>9.708519442974008</v>
+        <v>13.73625973762245</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>13.83511885336498</v>
+        <v>21.88204094908405</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.96832965735411</v>
+        <v>10.83661249468108</v>
       </c>
       <c r="C9">
-        <v>8.48486183788318</v>
+        <v>11.49530849476104</v>
       </c>
       <c r="D9">
-        <v>5.891746694391998</v>
+        <v>5.400546257688555</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.11208272876186</v>
+        <v>24.13409307638958</v>
       </c>
       <c r="G9">
-        <v>20.52686379192313</v>
+        <v>28.43641327454115</v>
       </c>
       <c r="H9">
-        <v>8.50477772895022</v>
+        <v>14.29317011156167</v>
       </c>
       <c r="I9">
-        <v>14.05686766336466</v>
+        <v>23.07362436414085</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>12.58452428147044</v>
+        <v>9.076475660650519</v>
       </c>
       <c r="L9">
-        <v>7.434829251052008</v>
+        <v>11.20354727657848</v>
       </c>
       <c r="M9">
-        <v>10.6077876303006</v>
+        <v>13.86479542039905</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>13.64803822854179</v>
+        <v>21.69797256922764</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.25161627591751</v>
+        <v>11.33818404053756</v>
       </c>
       <c r="C10">
-        <v>8.459296320156643</v>
+        <v>11.47948958065632</v>
       </c>
       <c r="D10">
-        <v>6.230400615561333</v>
+        <v>5.534594648093402</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.49696468364131</v>
+        <v>24.074436041014</v>
       </c>
       <c r="G10">
-        <v>20.85775088687057</v>
+        <v>28.31209881036975</v>
       </c>
       <c r="H10">
-        <v>8.389778536318836</v>
+        <v>14.22365838330871</v>
       </c>
       <c r="I10">
-        <v>13.78078627571118</v>
+        <v>22.92817254122809</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>13.42055043627857</v>
+        <v>9.472795806809534</v>
       </c>
       <c r="L10">
-        <v>7.638725892489657</v>
+        <v>11.20054812274644</v>
       </c>
       <c r="M10">
-        <v>11.23743939175919</v>
+        <v>13.96697196097528</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>13.57147378348617</v>
+        <v>21.58306078886712</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.80412232026597</v>
+        <v>11.55986417388516</v>
       </c>
       <c r="C11">
-        <v>8.449481876218142</v>
+        <v>11.4730848574007</v>
       </c>
       <c r="D11">
-        <v>6.378188753312573</v>
+        <v>5.593823064634205</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.68869770512283</v>
+        <v>24.05358822976941</v>
       </c>
       <c r="G11">
-        <v>21.03849863662672</v>
+        <v>28.26452136780071</v>
       </c>
       <c r="H11">
-        <v>8.343426786619386</v>
+        <v>14.19416473897815</v>
       </c>
       <c r="I11">
-        <v>13.66788600849276</v>
+        <v>22.86623204693775</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.78417241084868</v>
+        <v>9.646385833941808</v>
       </c>
       <c r="L11">
-        <v>7.734187830879435</v>
+        <v>11.20100053861492</v>
       </c>
       <c r="M11">
-        <v>11.5161087542202</v>
+        <v>14.01502143575919</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>13.55134325476286</v>
+        <v>21.53520732738713</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.00887774101773</v>
+        <v>11.64280359815114</v>
       </c>
       <c r="C12">
-        <v>8.446030504733953</v>
+        <v>11.47077274957391</v>
       </c>
       <c r="D12">
-        <v>6.433231455262363</v>
+        <v>5.615989205667307</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>17.7637170301093</v>
+        <v>24.04659938269301</v>
       </c>
       <c r="G12">
-        <v>21.11142660605937</v>
+        <v>28.24780133731905</v>
       </c>
       <c r="H12">
-        <v>8.326778796502195</v>
+        <v>14.18330184028143</v>
       </c>
       <c r="I12">
-        <v>13.62707958809918</v>
+        <v>22.84338431712628</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.91943385117643</v>
+        <v>9.711120190162717</v>
       </c>
       <c r="L12">
-        <v>7.770708331172028</v>
+        <v>11.20143202575092</v>
       </c>
       <c r="M12">
-        <v>11.64976612562117</v>
+        <v>14.03343192691747</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>13.54595926042258</v>
+        <v>21.51772299953636</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.96497814909469</v>
+        <v>11.62498693905704</v>
       </c>
       <c r="C13">
-        <v>8.446761959556813</v>
+        <v>11.47126567700255</v>
       </c>
       <c r="D13">
-        <v>6.421418289643291</v>
+        <v>5.611227162487279</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>17.74745266636057</v>
+        <v>24.04806425728951</v>
       </c>
       <c r="G13">
-        <v>21.09551893133891</v>
+        <v>28.25134454079754</v>
       </c>
       <c r="H13">
-        <v>8.33032323165938</v>
+        <v>14.18562776732065</v>
       </c>
       <c r="I13">
-        <v>13.63577937061123</v>
+        <v>22.84827795155323</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.89041159444053</v>
+        <v>9.697223533084303</v>
       </c>
       <c r="L13">
-        <v>7.762826770416423</v>
+        <v>11.20132754473788</v>
       </c>
       <c r="M13">
-        <v>11.62079820302806</v>
+        <v>14.02945749592456</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>13.5470172041986</v>
+        <v>21.52146022620104</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.82105700971034</v>
+        <v>11.56670820536519</v>
       </c>
       <c r="C14">
-        <v>8.449192591725334</v>
+        <v>11.47289237307604</v>
       </c>
       <c r="D14">
-        <v>6.382735719682792</v>
+        <v>5.59565200346739</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.69482111854784</v>
+        <v>24.05299509487838</v>
       </c>
       <c r="G14">
-        <v>21.0444079132356</v>
+        <v>28.26311978371696</v>
       </c>
       <c r="H14">
-        <v>8.342038739762648</v>
+        <v>14.19326491633667</v>
       </c>
       <c r="I14">
-        <v>13.66448909838055</v>
+        <v>22.86434016895238</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.79534940165412</v>
+        <v>9.651731817495042</v>
       </c>
       <c r="L14">
-        <v>7.737185060313916</v>
+        <v>11.20103082979321</v>
       </c>
       <c r="M14">
-        <v>11.52586153245351</v>
+        <v>14.01653182566115</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>13.55085471278731</v>
+        <v>21.53375611387876</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.73232039893994</v>
+        <v>11.53087773843904</v>
       </c>
       <c r="C15">
-        <v>8.450716078830533</v>
+        <v>11.47390349905674</v>
       </c>
       <c r="D15">
-        <v>6.358920990401501</v>
+        <v>5.586077295031341</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.66289763848886</v>
+        <v>24.05613336101676</v>
       </c>
       <c r="G15">
-        <v>21.01368843149259</v>
+        <v>28.27050147633475</v>
       </c>
       <c r="H15">
-        <v>8.349334059113609</v>
+        <v>14.1979826953869</v>
       </c>
       <c r="I15">
-        <v>13.68233189811947</v>
+        <v>22.87425789559382</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.73680318588169</v>
+        <v>9.623735506598306</v>
       </c>
       <c r="L15">
-        <v>7.721526565772757</v>
+        <v>11.2008829306806</v>
       </c>
       <c r="M15">
-        <v>11.4796539385771</v>
+        <v>14.00864219088664</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>13.5535006339023</v>
+        <v>21.54137065415562</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.21488198561959</v>
+        <v>11.32355975665069</v>
       </c>
       <c r="C16">
-        <v>8.459974593008724</v>
+        <v>11.4799240196261</v>
       </c>
       <c r="D16">
-        <v>6.220614384436831</v>
+        <v>5.53068778044221</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.48477139622198</v>
+        <v>24.07592518790885</v>
       </c>
       <c r="G16">
-        <v>20.8465589139662</v>
+        <v>28.31538921673941</v>
       </c>
       <c r="H16">
-        <v>8.392931656082048</v>
+        <v>14.22562865408523</v>
       </c>
       <c r="I16">
-        <v>13.78843011023322</v>
+        <v>22.93230554574435</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>13.39644788918433</v>
+        <v>9.461313232595458</v>
       </c>
       <c r="L16">
-        <v>7.632540158671151</v>
+        <v>11.20055502441168</v>
       </c>
       <c r="M16">
-        <v>11.2190651633175</v>
+        <v>13.96386250171672</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>13.57309580702377</v>
+        <v>21.58627716916013</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.88946200896879</v>
+        <v>11.1946608989443</v>
       </c>
       <c r="C17">
-        <v>8.466122210716899</v>
+        <v>11.48381969481651</v>
       </c>
       <c r="D17">
-        <v>6.134146964538936</v>
+        <v>5.496251942747989</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.37977771266781</v>
+        <v>24.08967896991726</v>
       </c>
       <c r="G17">
-        <v>20.75187509042551</v>
+        <v>28.34522929893724</v>
       </c>
       <c r="H17">
-        <v>8.421236891120696</v>
+        <v>14.243133306735</v>
       </c>
       <c r="I17">
-        <v>13.85685171478643</v>
+        <v>22.96899837831219</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>13.18334872962662</v>
+        <v>9.359929113242181</v>
       </c>
       <c r="L17">
-        <v>7.578630470313009</v>
+        <v>11.20081844741188</v>
       </c>
       <c r="M17">
-        <v>11.05716005725509</v>
+        <v>13.93678612785043</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.5889700670237</v>
+        <v>21.61495882622754</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.69934402378491</v>
+        <v>11.11991495856569</v>
       </c>
       <c r="C18">
-        <v>8.46982877824488</v>
+        <v>11.486134907207</v>
       </c>
       <c r="D18">
-        <v>6.0838242460492</v>
+        <v>5.476281157438914</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.32095448888145</v>
+        <v>24.09818182619989</v>
       </c>
       <c r="G18">
-        <v>20.70025352459907</v>
+        <v>28.36323685192567</v>
       </c>
       <c r="H18">
-        <v>8.438075475375078</v>
+        <v>14.25340179248344</v>
       </c>
       <c r="I18">
-        <v>13.89739264371191</v>
+        <v>22.99050091581804</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>13.05921014589967</v>
+        <v>9.300987163600329</v>
       </c>
       <c r="L18">
-        <v>7.547879063955816</v>
+        <v>11.201141034246</v>
       </c>
       <c r="M18">
-        <v>10.96330936671266</v>
+        <v>13.92136082373829</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.59947642153975</v>
+        <v>21.63187176997391</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.63446667880221</v>
+        <v>11.0945054137451</v>
       </c>
       <c r="C19">
-        <v>8.471112941428506</v>
+        <v>11.48693161532673</v>
       </c>
       <c r="D19">
-        <v>6.066685365009538</v>
+        <v>5.469491523216258</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.30130623199871</v>
+        <v>24.10116238759232</v>
       </c>
       <c r="G19">
-        <v>20.68325831353197</v>
+        <v>28.36947872004</v>
       </c>
       <c r="H19">
-        <v>8.443871211585295</v>
+        <v>14.25691292981629</v>
       </c>
       <c r="I19">
-        <v>13.91131936509973</v>
+        <v>22.99784962529796</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>13.01691057436101</v>
+        <v>9.280923690742204</v>
       </c>
       <c r="L19">
-        <v>7.537511698741206</v>
+        <v>11.20127966943629</v>
       </c>
       <c r="M19">
-        <v>10.93141059870212</v>
+        <v>13.91616386527318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.60326622097605</v>
+        <v>21.63766961966649</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.92440811468215</v>
+        <v>11.20844574998137</v>
       </c>
       <c r="C20">
-        <v>8.46545009881903</v>
+        <v>11.48339728486677</v>
       </c>
       <c r="D20">
-        <v>6.143412681117894</v>
+        <v>5.499934769384685</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.39079218481648</v>
+        <v>24.08815357182285</v>
       </c>
       <c r="G20">
-        <v>20.76165956607886</v>
+        <v>28.34196534083683</v>
       </c>
       <c r="H20">
-        <v>8.418165651773261</v>
+        <v>14.24124918089419</v>
       </c>
       <c r="I20">
-        <v>13.84944445670123</v>
+        <v>22.96505119348693</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>13.20619622232766</v>
+        <v>9.370786954356078</v>
       </c>
       <c r="L20">
-        <v>7.584342884873182</v>
+        <v>11.20077270761696</v>
       </c>
       <c r="M20">
-        <v>11.07447094078947</v>
+        <v>13.93965317896141</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.58713692336131</v>
+        <v>21.61186255119402</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.86345110935082</v>
+        <v>11.58385393192799</v>
       </c>
       <c r="C21">
-        <v>8.44847142653213</v>
+        <v>11.47241150480934</v>
       </c>
       <c r="D21">
-        <v>6.394122879193641</v>
+        <v>5.600234007643584</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.7102146377119</v>
+        <v>24.05152219870684</v>
       </c>
       <c r="G21">
-        <v>21.05929780955426</v>
+        <v>28.25962587645416</v>
       </c>
       <c r="H21">
-        <v>8.338572674662913</v>
+        <v>14.19101340568339</v>
       </c>
       <c r="I21">
-        <v>13.65600251131111</v>
+        <v>22.85960581042769</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.82333776585881</v>
+        <v>9.665121265315772</v>
       </c>
       <c r="L21">
-        <v>7.744706724330872</v>
+        <v>11.20111093050063</v>
       </c>
       <c r="M21">
-        <v>11.55382138425922</v>
+        <v>14.02032265225178</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>13.54966576945431</v>
+        <v>21.53012722416253</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.45115083762982</v>
+        <v>11.82331216617186</v>
       </c>
       <c r="C22">
-        <v>8.438922404022168</v>
+        <v>11.46589133725362</v>
       </c>
       <c r="D22">
-        <v>6.552598671931664</v>
+        <v>5.664251524034357</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>17.933051486498</v>
+        <v>24.03286122322682</v>
       </c>
       <c r="G22">
-        <v>21.27999972989912</v>
+        <v>28.21337180815772</v>
       </c>
       <c r="H22">
-        <v>8.291849782787585</v>
+        <v>14.15996319669849</v>
       </c>
       <c r="I22">
-        <v>13.54098597644646</v>
+        <v>22.79423388132966</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>14.21247678278064</v>
+        <v>9.851640021286489</v>
       </c>
       <c r="L22">
-        <v>7.851668796239357</v>
+        <v>11.20284784580225</v>
       </c>
       <c r="M22">
-        <v>11.94186126593246</v>
+        <v>14.07429413313313</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>13.53828620230104</v>
+        <v>21.48042035699536</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.13985465180616</v>
+        <v>11.6960702600381</v>
       </c>
       <c r="C23">
-        <v>8.443875892231285</v>
+        <v>11.46931110426889</v>
       </c>
       <c r="D23">
-        <v>6.468514974614911</v>
+        <v>5.630227870736126</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>17.81282663870977</v>
+        <v>24.04233755717783</v>
       </c>
       <c r="G23">
-        <v>21.15977169188704</v>
+        <v>28.23736490094112</v>
       </c>
       <c r="H23">
-        <v>8.316285728709104</v>
+        <v>14.17637232202184</v>
       </c>
       <c r="I23">
-        <v>13.60128580343389</v>
+        <v>22.82879992197451</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>14.00609413371386</v>
+        <v>9.752637624346509</v>
       </c>
       <c r="L23">
-        <v>7.794389906935202</v>
+        <v>11.20178250704121</v>
       </c>
       <c r="M23">
-        <v>11.73622070827757</v>
+        <v>14.04537773452857</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>13.54311825165736</v>
+        <v>21.50660985653262</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.90861841935419</v>
+        <v>11.20221560749456</v>
       </c>
       <c r="C24">
-        <v>8.46575342448711</v>
+        <v>11.48358802107314</v>
       </c>
       <c r="D24">
-        <v>6.139225553598025</v>
+        <v>5.498270302020098</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.38580774979508</v>
+        <v>24.08884134908751</v>
       </c>
       <c r="G24">
-        <v>20.75722725200935</v>
+        <v>28.34343832256869</v>
       </c>
       <c r="H24">
-        <v>8.419552401115844</v>
+        <v>14.24210035614334</v>
       </c>
       <c r="I24">
-        <v>13.85278953561008</v>
+        <v>22.96683444691794</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>13.1958719298129</v>
+        <v>9.36588016131023</v>
       </c>
       <c r="L24">
-        <v>7.58175954710559</v>
+        <v>11.20079285341484</v>
       </c>
       <c r="M24">
-        <v>11.06664708099501</v>
+        <v>13.93835654434849</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.5879613985924</v>
+        <v>21.61326105811865</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.46784314494567</v>
+        <v>10.64668045431965</v>
       </c>
       <c r="C25">
-        <v>8.495860281054933</v>
+        <v>11.50183948600876</v>
       </c>
       <c r="D25">
-        <v>5.76163365941175</v>
+        <v>5.349702564857011</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.98492204842058</v>
+        <v>24.16162924847785</v>
       </c>
       <c r="G25">
-        <v>20.43079135085755</v>
+        <v>28.49010664840108</v>
       </c>
       <c r="H25">
-        <v>8.552118258584684</v>
+        <v>14.32065668677324</v>
       </c>
       <c r="I25">
-        <v>14.16903641070268</v>
+        <v>23.13093571724795</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>12.26213360619979</v>
+        <v>8.924858523729776</v>
       </c>
       <c r="L25">
-        <v>7.362264493280306</v>
+        <v>11.20626897219549</v>
       </c>
       <c r="M25">
-        <v>10.36956829889863</v>
+        <v>13.82862584972755</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>13.68844751667712</v>
+        <v>21.74420229197365</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_213/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_213/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.2210306930377</v>
+        <v>13.30899933024909</v>
       </c>
       <c r="C2">
-        <v>11.51775305135823</v>
+        <v>8.523486495694389</v>
       </c>
       <c r="D2">
-        <v>5.235352649440111</v>
+        <v>5.465263342582287</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>24.23461331518008</v>
+        <v>16.73978033650274</v>
       </c>
       <c r="G2">
-        <v>28.6255903374972</v>
+        <v>20.27695066973452</v>
       </c>
       <c r="H2">
-        <v>14.38510219455232</v>
+        <v>8.666369696155387</v>
       </c>
       <c r="I2">
-        <v>23.26486237457069</v>
+        <v>14.43658764055369</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.58116882421815</v>
+        <v>11.52490664854068</v>
       </c>
       <c r="L2">
-        <v>11.21595893292223</v>
+        <v>7.209750615664507</v>
       </c>
       <c r="M2">
-        <v>13.75308397553642</v>
+        <v>9.835906972697176</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>21.85426183704564</v>
+        <v>13.80275637882289</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>9.923992341463785</v>
+        <v>12.46209334246799</v>
       </c>
       <c r="C3">
-        <v>11.53009331592607</v>
+        <v>8.54554969338256</v>
       </c>
       <c r="D3">
-        <v>5.154982484669983</v>
+        <v>5.253576939105195</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.29612488448738</v>
+        <v>16.60387446199479</v>
       </c>
       <c r="G3">
-        <v>28.73442185032179</v>
+        <v>20.22298434732743</v>
       </c>
       <c r="H3">
-        <v>14.43290714826732</v>
+        <v>8.753469739563689</v>
       </c>
       <c r="I3">
-        <v>23.36380770168875</v>
+        <v>14.63779955988348</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.337340936199</v>
+        <v>10.99552385824337</v>
       </c>
       <c r="L3">
-        <v>11.22606745934483</v>
+        <v>7.112360056924532</v>
       </c>
       <c r="M3">
-        <v>13.70532880120398</v>
+        <v>9.463539385234199</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>21.93734974384658</v>
+        <v>13.90319290696959</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.738061449572168</v>
+        <v>11.9116524656476</v>
       </c>
       <c r="C4">
-        <v>11.53844143672482</v>
+        <v>8.560724473321024</v>
       </c>
       <c r="D4">
-        <v>5.10429642810818</v>
+        <v>5.11851530845423</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.33981841187791</v>
+        <v>16.53491755902113</v>
       </c>
       <c r="G4">
-        <v>28.80958767732322</v>
+        <v>20.21328947991126</v>
       </c>
       <c r="H4">
-        <v>14.46429970509273</v>
+        <v>8.81150356382323</v>
       </c>
       <c r="I4">
-        <v>23.42859982846176</v>
+        <v>14.77063368883069</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.182608094998681</v>
+        <v>10.65636993770595</v>
       </c>
       <c r="L4">
-        <v>11.2340243499668</v>
+        <v>7.055594092385798</v>
       </c>
       <c r="M4">
-        <v>13.6777560088864</v>
+        <v>9.230443338114151</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>21.99255363269664</v>
+        <v>13.97549267801216</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.661512211389804</v>
+        <v>11.6796870182396</v>
       </c>
       <c r="C5">
-        <v>11.54203786455568</v>
+        <v>8.567314866721372</v>
       </c>
       <c r="D5">
-        <v>5.083317530828728</v>
+        <v>5.062243390516311</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.35911089421014</v>
+        <v>16.51038863525379</v>
       </c>
       <c r="G5">
-        <v>28.84230870328967</v>
+        <v>20.21501732966285</v>
       </c>
       <c r="H5">
-        <v>14.47760585606532</v>
+        <v>8.836267702781321</v>
       </c>
       <c r="I5">
-        <v>23.45601927652849</v>
+        <v>14.82702854777837</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.118350140601684</v>
+        <v>10.5147181754152</v>
       </c>
       <c r="L5">
-        <v>11.23770743687998</v>
+        <v>7.033236008666155</v>
       </c>
       <c r="M5">
-        <v>13.66696743736208</v>
+        <v>9.134472096717843</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.01610188223956</v>
+        <v>14.0075281940353</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.648757507038264</v>
+        <v>11.64070699694964</v>
       </c>
       <c r="C6">
-        <v>11.54264681329564</v>
+        <v>8.568433671792244</v>
       </c>
       <c r="D6">
-        <v>5.07981481544165</v>
+        <v>5.052826451177977</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.36240411646467</v>
+        <v>16.50652904087094</v>
       </c>
       <c r="G6">
-        <v>28.84786802930375</v>
+        <v>20.2156406931386</v>
       </c>
       <c r="H6">
-        <v>14.47984635477465</v>
+        <v>8.840446256027274</v>
       </c>
       <c r="I6">
-        <v>23.46063363959223</v>
+        <v>14.83652760344462</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.107609334909313</v>
+        <v>10.49099242985286</v>
       </c>
       <c r="L6">
-        <v>11.23834563331829</v>
+        <v>7.029570557507733</v>
       </c>
       <c r="M6">
-        <v>13.66520325324483</v>
+        <v>9.118481132988274</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.02007557945049</v>
+        <v>14.01300018002009</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.737032088882197</v>
+        <v>11.90855509632069</v>
       </c>
       <c r="C7">
-        <v>11.53848915109958</v>
+        <v>8.560811711161573</v>
       </c>
       <c r="D7">
-        <v>5.104014793864618</v>
+        <v>5.117761334210126</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.34007258027344</v>
+        <v>16.53457239465693</v>
       </c>
       <c r="G7">
-        <v>28.81002051101904</v>
+        <v>20.21329008295583</v>
       </c>
       <c r="H7">
-        <v>14.46447707707435</v>
+        <v>8.811833066148882</v>
       </c>
       <c r="I7">
-        <v>23.42896550187798</v>
+        <v>14.77138517435112</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.181746278462244</v>
+        <v>10.65447336470335</v>
       </c>
       <c r="L7">
-        <v>11.23407223686735</v>
+        <v>7.055289413018925</v>
       </c>
       <c r="M7">
-        <v>13.67760868834023</v>
+        <v>9.229152821190999</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>21.99286695327871</v>
+        <v>13.97591443353512</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.11941269024777</v>
+        <v>13.0232992587975</v>
       </c>
       <c r="C8">
-        <v>11.52184827625713</v>
+        <v>8.530754291336629</v>
       </c>
       <c r="D8">
-        <v>5.207926253222304</v>
+        <v>5.39335476247539</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>24.25459107708086</v>
+        <v>16.68987242238881</v>
       </c>
       <c r="G8">
-        <v>28.6613794614524</v>
+        <v>20.25335183483901</v>
       </c>
       <c r="H8">
-        <v>14.40116217029727</v>
+        <v>8.695437808892629</v>
       </c>
       <c r="I8">
-        <v>23.29814061601718</v>
+        <v>14.50399251805891</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.498173422581678</v>
+        <v>11.34536124652972</v>
       </c>
       <c r="L8">
-        <v>11.21908141411737</v>
+        <v>7.175548784744351</v>
       </c>
       <c r="M8">
-        <v>13.73625973762245</v>
+        <v>9.708519442974039</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>21.88204094908405</v>
+        <v>13.83511885336498</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.83661249468108</v>
+        <v>14.96832965735408</v>
       </c>
       <c r="C9">
-        <v>11.49530849476104</v>
+        <v>8.484861837883299</v>
       </c>
       <c r="D9">
-        <v>5.400546257688555</v>
+        <v>5.891746694392111</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>24.13409307638958</v>
+        <v>17.11208272876195</v>
       </c>
       <c r="G9">
-        <v>28.43641327454115</v>
+        <v>20.52686379192331</v>
       </c>
       <c r="H9">
-        <v>14.29317011156167</v>
+        <v>8.504777728950287</v>
       </c>
       <c r="I9">
-        <v>23.07362436414085</v>
+        <v>14.05686766336486</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.076475660650519</v>
+        <v>12.58452428147038</v>
       </c>
       <c r="L9">
-        <v>11.20354727657848</v>
+        <v>7.434829251052044</v>
       </c>
       <c r="M9">
-        <v>13.86479542039905</v>
+        <v>10.60778763030066</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.69797256922764</v>
+        <v>13.64803822854193</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.33818404053756</v>
+        <v>16.25161627591757</v>
       </c>
       <c r="C10">
-        <v>11.47948958065632</v>
+        <v>8.459296320156627</v>
       </c>
       <c r="D10">
-        <v>5.534594648093402</v>
+        <v>6.23040061556142</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>24.074436041014</v>
+        <v>17.49696468364131</v>
       </c>
       <c r="G10">
-        <v>28.31209881036975</v>
+        <v>20.85775088687058</v>
       </c>
       <c r="H10">
-        <v>14.22365838330871</v>
+        <v>8.389778536318911</v>
       </c>
       <c r="I10">
-        <v>22.92817254122809</v>
+        <v>13.78078627571116</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>9.472795806809534</v>
+        <v>13.42055043627862</v>
       </c>
       <c r="L10">
-        <v>11.20054812274644</v>
+        <v>7.638725892489727</v>
       </c>
       <c r="M10">
-        <v>13.96697196097528</v>
+        <v>11.23743939175919</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.58306078886712</v>
+        <v>13.57147378348617</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.55986417388516</v>
+        <v>16.80412232026596</v>
       </c>
       <c r="C11">
-        <v>11.4730848574007</v>
+        <v>8.449481876218011</v>
       </c>
       <c r="D11">
-        <v>5.593823064634205</v>
+        <v>6.378188753312561</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>24.05358822976941</v>
+        <v>17.68869770512281</v>
       </c>
       <c r="G11">
-        <v>28.26452136780071</v>
+        <v>21.03849863662679</v>
       </c>
       <c r="H11">
-        <v>14.19416473897815</v>
+        <v>8.343426786619276</v>
       </c>
       <c r="I11">
-        <v>22.86623204693775</v>
+        <v>13.66788600849272</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.646385833941808</v>
+        <v>13.78417241084864</v>
       </c>
       <c r="L11">
-        <v>11.20100053861492</v>
+        <v>7.734187830879399</v>
       </c>
       <c r="M11">
-        <v>14.01502143575919</v>
+        <v>11.5161087542202</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.53520732738713</v>
+        <v>13.55134325476283</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.64280359815114</v>
+        <v>17.00887774101775</v>
       </c>
       <c r="C12">
-        <v>11.47077274957391</v>
+        <v>8.446030504734065</v>
       </c>
       <c r="D12">
-        <v>5.615989205667307</v>
+        <v>6.433231455262341</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.04659938269301</v>
+        <v>17.7637170301093</v>
       </c>
       <c r="G12">
-        <v>28.24780133731905</v>
+        <v>21.11142660605933</v>
       </c>
       <c r="H12">
-        <v>14.18330184028143</v>
+        <v>8.326778796502209</v>
       </c>
       <c r="I12">
-        <v>22.84338431712628</v>
+        <v>13.62707958809911</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.711120190162717</v>
+        <v>13.91943385117638</v>
       </c>
       <c r="L12">
-        <v>11.20143202575092</v>
+        <v>7.770708331172002</v>
       </c>
       <c r="M12">
-        <v>14.03343192691747</v>
+        <v>11.64976612562121</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.51772299953636</v>
+        <v>13.54595926042258</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.62498693905704</v>
+        <v>16.9649781490947</v>
       </c>
       <c r="C13">
-        <v>11.47126567700255</v>
+        <v>8.446761959556801</v>
       </c>
       <c r="D13">
-        <v>5.611227162487279</v>
+        <v>6.421418289643352</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>24.04806425728951</v>
+        <v>17.74745266636056</v>
       </c>
       <c r="G13">
-        <v>28.25134454079754</v>
+        <v>21.09551893133887</v>
       </c>
       <c r="H13">
-        <v>14.18562776732065</v>
+        <v>8.330323231659372</v>
       </c>
       <c r="I13">
-        <v>22.84827795155323</v>
+        <v>13.63577937061123</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.697223533084303</v>
+        <v>13.89041159444051</v>
       </c>
       <c r="L13">
-        <v>11.20132754473788</v>
+        <v>7.76282677041643</v>
       </c>
       <c r="M13">
-        <v>14.02945749592456</v>
+        <v>11.62079820302807</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.52146022620104</v>
+        <v>13.54701720419858</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.56670820536519</v>
+        <v>16.82105700971048</v>
       </c>
       <c r="C14">
-        <v>11.47289237307604</v>
+        <v>8.449192591725209</v>
       </c>
       <c r="D14">
-        <v>5.59565200346739</v>
+        <v>6.382735719682799</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>24.05299509487838</v>
+        <v>17.69482111854763</v>
       </c>
       <c r="G14">
-        <v>28.26311978371696</v>
+        <v>21.04440791323527</v>
       </c>
       <c r="H14">
-        <v>14.19326491633667</v>
+        <v>8.342038739762545</v>
       </c>
       <c r="I14">
-        <v>22.86434016895238</v>
+        <v>13.66448909838028</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.651731817495042</v>
+        <v>13.79534940165425</v>
       </c>
       <c r="L14">
-        <v>11.20103082979321</v>
+        <v>7.737185060313967</v>
       </c>
       <c r="M14">
-        <v>14.01653182566115</v>
+        <v>11.52586153245359</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.53375611387876</v>
+        <v>13.55085471278706</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.53087773843904</v>
+        <v>16.73232039893995</v>
       </c>
       <c r="C15">
-        <v>11.47390349905674</v>
+        <v>8.450716078830911</v>
       </c>
       <c r="D15">
-        <v>5.586077295031341</v>
+        <v>6.358920990401463</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>24.05613336101676</v>
+        <v>17.66289763848879</v>
       </c>
       <c r="G15">
-        <v>28.27050147633475</v>
+        <v>21.01368843149244</v>
       </c>
       <c r="H15">
-        <v>14.1979826953869</v>
+        <v>8.349334059113623</v>
       </c>
       <c r="I15">
-        <v>22.87425789559382</v>
+        <v>13.68233189811946</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.623735506598306</v>
+        <v>13.73680318588172</v>
       </c>
       <c r="L15">
-        <v>11.2008829306806</v>
+        <v>7.721526565772745</v>
       </c>
       <c r="M15">
-        <v>14.00864219088664</v>
+        <v>11.47965393857712</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.54137065415562</v>
+        <v>13.55350063390221</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.32355975665069</v>
+        <v>16.21488198561963</v>
       </c>
       <c r="C16">
-        <v>11.4799240196261</v>
+        <v>8.459974593008717</v>
       </c>
       <c r="D16">
-        <v>5.53068778044221</v>
+        <v>6.220614384436747</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>24.07592518790885</v>
+        <v>17.48477139622196</v>
       </c>
       <c r="G16">
-        <v>28.31538921673941</v>
+        <v>20.84655891396605</v>
       </c>
       <c r="H16">
-        <v>14.22562865408523</v>
+        <v>8.392931656082048</v>
       </c>
       <c r="I16">
-        <v>22.93230554574435</v>
+        <v>13.78843011023308</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>9.461313232595458</v>
+        <v>13.39644788918433</v>
       </c>
       <c r="L16">
-        <v>11.20055502441168</v>
+        <v>7.632540158671136</v>
       </c>
       <c r="M16">
-        <v>13.96386250171672</v>
+        <v>11.2190651633175</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.58627716916013</v>
+        <v>13.5730958070237</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.1946608989443</v>
+        <v>15.88946200896882</v>
       </c>
       <c r="C17">
-        <v>11.48381969481651</v>
+        <v>8.466122210716643</v>
       </c>
       <c r="D17">
-        <v>5.496251942747989</v>
+        <v>6.13414696453893</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>24.08967896991726</v>
+        <v>17.37977771266771</v>
       </c>
       <c r="G17">
-        <v>28.34522929893724</v>
+        <v>20.7518750904253</v>
       </c>
       <c r="H17">
-        <v>14.243133306735</v>
+        <v>8.421236891120637</v>
       </c>
       <c r="I17">
-        <v>22.96899837831219</v>
+        <v>13.85685171478626</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>9.359929113242181</v>
+        <v>13.18334872962667</v>
       </c>
       <c r="L17">
-        <v>11.20081844741188</v>
+        <v>7.578630470313009</v>
       </c>
       <c r="M17">
-        <v>13.93678612785043</v>
+        <v>11.05716005725506</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.61495882622754</v>
+        <v>13.58897006702358</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.11991495856569</v>
+        <v>15.69934402378487</v>
       </c>
       <c r="C18">
-        <v>11.486134907207</v>
+        <v>8.469828778245121</v>
       </c>
       <c r="D18">
-        <v>5.476281157438914</v>
+        <v>6.08382424604931</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>24.09818182619989</v>
+        <v>17.3209544888815</v>
       </c>
       <c r="G18">
-        <v>28.36323685192567</v>
+        <v>20.70025352459932</v>
       </c>
       <c r="H18">
-        <v>14.25340179248344</v>
+        <v>8.438075475375078</v>
       </c>
       <c r="I18">
-        <v>22.99050091581804</v>
+        <v>13.89739264371209</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>9.300987163600329</v>
+        <v>13.0592101458997</v>
       </c>
       <c r="L18">
-        <v>11.201141034246</v>
+        <v>7.547879063955844</v>
       </c>
       <c r="M18">
-        <v>13.92136082373829</v>
+        <v>10.96330936671267</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>21.63187176997391</v>
+        <v>13.59947642153983</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.0945054137451</v>
+        <v>15.63446667880221</v>
       </c>
       <c r="C19">
-        <v>11.48693161532673</v>
+        <v>8.471112941428233</v>
       </c>
       <c r="D19">
-        <v>5.469491523216258</v>
+        <v>6.066685365009468</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.10116238759232</v>
+        <v>17.30130623199884</v>
       </c>
       <c r="G19">
-        <v>28.36947872004</v>
+        <v>20.68325831353189</v>
       </c>
       <c r="H19">
-        <v>14.25691292981629</v>
+        <v>8.443871211585307</v>
       </c>
       <c r="I19">
-        <v>22.99784962529796</v>
+        <v>13.91131936509974</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>9.280923690742204</v>
+        <v>13.016910574361</v>
       </c>
       <c r="L19">
-        <v>11.20127966943629</v>
+        <v>7.537511698741234</v>
       </c>
       <c r="M19">
-        <v>13.91616386527318</v>
+        <v>10.93141059870216</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>21.63766961966649</v>
+        <v>13.60326622097604</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.20844574998137</v>
+        <v>15.92440811468211</v>
       </c>
       <c r="C20">
-        <v>11.48339728486677</v>
+        <v>8.465450098819138</v>
       </c>
       <c r="D20">
-        <v>5.499934769384685</v>
+        <v>6.143412681117925</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>24.08815357182285</v>
+        <v>17.3907921848166</v>
       </c>
       <c r="G20">
-        <v>28.34196534083683</v>
+        <v>20.76165956607905</v>
       </c>
       <c r="H20">
-        <v>14.24124918089419</v>
+        <v>8.418165651773329</v>
       </c>
       <c r="I20">
-        <v>22.96505119348693</v>
+        <v>13.84944445670144</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>9.370786954356078</v>
+        <v>13.20619622232766</v>
       </c>
       <c r="L20">
-        <v>11.20077270761696</v>
+        <v>7.584342884873199</v>
       </c>
       <c r="M20">
-        <v>13.93965317896141</v>
+        <v>11.0744709407895</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.61186255119402</v>
+        <v>13.58713692336149</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.58385393192799</v>
+        <v>16.86345110935074</v>
       </c>
       <c r="C21">
-        <v>11.47241150480934</v>
+        <v>8.448471426532249</v>
       </c>
       <c r="D21">
-        <v>5.600234007643584</v>
+        <v>6.394122879193804</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>24.05152219870684</v>
+        <v>17.71021463771187</v>
       </c>
       <c r="G21">
-        <v>28.25962587645416</v>
+        <v>21.05929780955435</v>
       </c>
       <c r="H21">
-        <v>14.19101340568339</v>
+        <v>8.338572674662922</v>
       </c>
       <c r="I21">
-        <v>22.85960581042769</v>
+        <v>13.65600251131119</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.665121265315772</v>
+        <v>13.82333776585872</v>
       </c>
       <c r="L21">
-        <v>11.20111093050063</v>
+        <v>7.744706724330845</v>
       </c>
       <c r="M21">
-        <v>14.02032265225178</v>
+        <v>11.55382138425918</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.53012722416253</v>
+        <v>13.54966576945437</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.82331216617186</v>
+        <v>17.45115083762981</v>
       </c>
       <c r="C22">
-        <v>11.46589133725362</v>
+        <v>8.438922404022165</v>
       </c>
       <c r="D22">
-        <v>5.664251524034357</v>
+        <v>6.552598671931791</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>24.03286122322682</v>
+        <v>17.93305148649792</v>
       </c>
       <c r="G22">
-        <v>28.21337180815772</v>
+        <v>21.2799997298991</v>
       </c>
       <c r="H22">
-        <v>14.15996319669849</v>
+        <v>8.29184978278758</v>
       </c>
       <c r="I22">
-        <v>22.79423388132966</v>
+        <v>13.54098597644641</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.851640021286489</v>
+        <v>14.21247678278064</v>
       </c>
       <c r="L22">
-        <v>11.20284784580225</v>
+        <v>7.851668796239323</v>
       </c>
       <c r="M22">
-        <v>14.07429413313313</v>
+        <v>11.94186126593248</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>21.48042035699536</v>
+        <v>13.53828620230103</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.6960702600381</v>
+        <v>17.13985465180622</v>
       </c>
       <c r="C23">
-        <v>11.46931110426889</v>
+        <v>8.443875892231009</v>
       </c>
       <c r="D23">
-        <v>5.630227870736126</v>
+        <v>6.468514974614801</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>24.04233755717783</v>
+        <v>17.81282663870977</v>
       </c>
       <c r="G23">
-        <v>28.23736490094112</v>
+        <v>21.15977169188708</v>
       </c>
       <c r="H23">
-        <v>14.17637232202184</v>
+        <v>8.316285728709037</v>
       </c>
       <c r="I23">
-        <v>22.82879992197451</v>
+        <v>13.60128580343377</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.752637624346509</v>
+        <v>14.00609413371384</v>
       </c>
       <c r="L23">
-        <v>11.20178250704121</v>
+        <v>7.794389906935248</v>
       </c>
       <c r="M23">
-        <v>14.04537773452857</v>
+        <v>11.73622070827759</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>21.50660985653262</v>
+        <v>13.54311825165735</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.20221560749456</v>
+        <v>15.90861841935421</v>
       </c>
       <c r="C24">
-        <v>11.48358802107314</v>
+        <v>8.465753424487106</v>
       </c>
       <c r="D24">
-        <v>5.498270302020098</v>
+        <v>6.139225553597926</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>24.08884134908751</v>
+        <v>17.38580774979507</v>
       </c>
       <c r="G24">
-        <v>28.34343832256869</v>
+        <v>20.75722725200925</v>
       </c>
       <c r="H24">
-        <v>14.24210035614334</v>
+        <v>8.419552401115848</v>
       </c>
       <c r="I24">
-        <v>22.96683444691794</v>
+        <v>13.85278953561002</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>9.36588016131023</v>
+        <v>13.19587192981294</v>
       </c>
       <c r="L24">
-        <v>11.20079285341484</v>
+        <v>7.581759547105634</v>
       </c>
       <c r="M24">
-        <v>13.93835654434849</v>
+        <v>11.066647080995</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.61326105811865</v>
+        <v>13.58796139859237</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.64668045431965</v>
+        <v>14.46784314494568</v>
       </c>
       <c r="C25">
-        <v>11.50183948600876</v>
+        <v>8.495860281054924</v>
       </c>
       <c r="D25">
-        <v>5.349702564857011</v>
+        <v>5.761633659411801</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>24.16162924847785</v>
+        <v>16.98492204842047</v>
       </c>
       <c r="G25">
-        <v>28.49010664840108</v>
+        <v>20.4307913508575</v>
       </c>
       <c r="H25">
-        <v>14.32065668677324</v>
+        <v>8.55211825858456</v>
       </c>
       <c r="I25">
-        <v>23.13093571724795</v>
+        <v>14.16903641070258</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.924858523729776</v>
+        <v>12.26213360619983</v>
       </c>
       <c r="L25">
-        <v>11.20626897219549</v>
+        <v>7.362264493280311</v>
       </c>
       <c r="M25">
-        <v>13.82862584972755</v>
+        <v>10.3695682988986</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>21.74420229197365</v>
+        <v>13.68844751667705</v>
       </c>
     </row>
   </sheetData>
